--- a/INTLINE/data/158/MOF/TRADE/COUN/Oceania.xlsx
+++ b/INTLINE/data/158/MOF/TRADE/COUN/Oceania.xlsx
@@ -4580,7 +4580,7 @@
         <v>195548091</v>
       </c>
       <c r="TA2" t="n">
-        <v>0</v>
+        <v>225620247</v>
       </c>
       <c r="TB2" t="n">
         <v>0</v>
@@ -6173,10 +6173,10 @@
         <v>785714245</v>
       </c>
       <c r="SZ3" t="n">
-        <v>726462861</v>
+        <v>728006766</v>
       </c>
       <c r="TA3" t="n">
-        <v>0</v>
+        <v>777007071</v>
       </c>
       <c r="TB3" t="n">
         <v>0</v>
@@ -7772,7 +7772,7 @@
         <v>156384290</v>
       </c>
       <c r="TA4" t="n">
-        <v>0</v>
+        <v>171413740</v>
       </c>
       <c r="TB4" t="n">
         <v>0</v>
@@ -9365,10 +9365,10 @@
         <v>728086811</v>
       </c>
       <c r="SZ5" t="n">
-        <v>654633775</v>
+        <v>656096194</v>
       </c>
       <c r="TA5" t="n">
-        <v>0</v>
+        <v>701580488</v>
       </c>
       <c r="TB5" t="n">
         <v>0</v>
@@ -10964,7 +10964,7 @@
         <v>1624166</v>
       </c>
       <c r="TA6" t="n">
-        <v>0</v>
+        <v>2523219</v>
       </c>
       <c r="TB6" t="n">
         <v>0</v>
@@ -12557,10 +12557,10 @@
         <v>29830867</v>
       </c>
       <c r="SZ7" t="n">
-        <v>49752813</v>
+        <v>49752996</v>
       </c>
       <c r="TA7" t="n">
-        <v>0</v>
+        <v>43119122</v>
       </c>
       <c r="TB7" t="n">
         <v>0</v>
@@ -14156,7 +14156,7 @@
         <v>6012</v>
       </c>
       <c r="TA8" t="n">
-        <v>0</v>
+        <v>9113</v>
       </c>
       <c r="TB8" t="n">
         <v>0</v>
@@ -15752,7 +15752,7 @@
         <v>0</v>
       </c>
       <c r="TA9" t="n">
-        <v>0</v>
+        <v>207</v>
       </c>
       <c r="TB9" t="n">
         <v>0</v>
@@ -17348,7 +17348,7 @@
         <v>27083667</v>
       </c>
       <c r="TA10" t="n">
-        <v>0</v>
+        <v>31398066</v>
       </c>
       <c r="TB10" t="n">
         <v>0</v>
@@ -18941,10 +18941,10 @@
         <v>24521790</v>
       </c>
       <c r="SZ11" t="n">
-        <v>17956628</v>
+        <v>18037931</v>
       </c>
       <c r="TA11" t="n">
-        <v>0</v>
+        <v>27999770</v>
       </c>
       <c r="TB11" t="n">
         <v>0</v>
@@ -20540,7 +20540,7 @@
         <v>14156</v>
       </c>
       <c r="TA12" t="n">
-        <v>0</v>
+        <v>16252</v>
       </c>
       <c r="TB12" t="n">
         <v>0</v>
@@ -22136,7 +22136,7 @@
         <v>267117</v>
       </c>
       <c r="TA13" t="n">
-        <v>0</v>
+        <v>126374</v>
       </c>
       <c r="TB13" t="n">
         <v>0</v>
@@ -23732,7 +23732,7 @@
         <v>0</v>
       </c>
       <c r="TA14" t="n">
-        <v>0</v>
+        <v>797</v>
       </c>
       <c r="TB14" t="n">
         <v>0</v>
@@ -25328,7 +25328,7 @@
         <v>0</v>
       </c>
       <c r="TA15" t="n">
-        <v>0</v>
+        <v>636</v>
       </c>
       <c r="TB15" t="n">
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>10457</v>
       </c>
       <c r="TA16" t="n">
-        <v>0</v>
+        <v>4484</v>
       </c>
       <c r="TB16" t="n">
         <v>0</v>
@@ -30116,7 +30116,7 @@
         <v>58388</v>
       </c>
       <c r="TA18" t="n">
-        <v>0</v>
+        <v>142018</v>
       </c>
       <c r="TB18" t="n">
         <v>0</v>
@@ -33308,7 +33308,7 @@
         <v>52043</v>
       </c>
       <c r="TA20" t="n">
-        <v>0</v>
+        <v>69020</v>
       </c>
       <c r="TB20" t="n">
         <v>0</v>
@@ -34904,7 +34904,7 @@
         <v>422063</v>
       </c>
       <c r="TA21" t="n">
-        <v>0</v>
+        <v>162225</v>
       </c>
       <c r="TB21" t="n">
         <v>0</v>
@@ -36500,7 +36500,7 @@
         <v>443957</v>
       </c>
       <c r="TA22" t="n">
-        <v>0</v>
+        <v>574831</v>
       </c>
       <c r="TB22" t="n">
         <v>0</v>
@@ -38096,7 +38096,7 @@
         <v>78691</v>
       </c>
       <c r="TA23" t="n">
-        <v>0</v>
+        <v>172546</v>
       </c>
       <c r="TB23" t="n">
         <v>0</v>
@@ -39692,7 +39692,7 @@
         <v>133379</v>
       </c>
       <c r="TA24" t="n">
-        <v>0</v>
+        <v>101026</v>
       </c>
       <c r="TB24" t="n">
         <v>0</v>
@@ -42884,7 +42884,7 @@
         <v>61178</v>
       </c>
       <c r="TA26" t="n">
-        <v>0</v>
+        <v>77531</v>
       </c>
       <c r="TB26" t="n">
         <v>0</v>
@@ -44480,7 +44480,7 @@
         <v>4140</v>
       </c>
       <c r="TA27" t="n">
-        <v>0</v>
+        <v>3773</v>
       </c>
       <c r="TB27" t="n">
         <v>0</v>
@@ -46076,7 +46076,7 @@
         <v>65219</v>
       </c>
       <c r="TA28" t="n">
-        <v>0</v>
+        <v>259676</v>
       </c>
       <c r="TB28" t="n">
         <v>0</v>
@@ -47672,7 +47672,7 @@
         <v>74297</v>
       </c>
       <c r="TA29" t="n">
-        <v>0</v>
+        <v>110860</v>
       </c>
       <c r="TB29" t="n">
         <v>0</v>
@@ -52460,7 +52460,7 @@
         <v>16749</v>
       </c>
       <c r="TA32" t="n">
-        <v>0</v>
+        <v>98138</v>
       </c>
       <c r="TB32" t="n">
         <v>0</v>
@@ -55652,7 +55652,7 @@
         <v>365726</v>
       </c>
       <c r="TA34" t="n">
-        <v>0</v>
+        <v>235706</v>
       </c>
       <c r="TB34" t="n">
         <v>0</v>
@@ -57248,7 +57248,7 @@
         <v>2888078</v>
       </c>
       <c r="TA35" t="n">
-        <v>0</v>
+        <v>3276438</v>
       </c>
       <c r="TB35" t="n">
         <v>0</v>
@@ -58844,7 +58844,7 @@
         <v>199588</v>
       </c>
       <c r="TA36" t="n">
-        <v>0</v>
+        <v>295880</v>
       </c>
       <c r="TB36" t="n">
         <v>0</v>
@@ -60440,7 +60440,7 @@
         <v>271022</v>
       </c>
       <c r="TA37" t="n">
-        <v>0</v>
+        <v>145174</v>
       </c>
       <c r="TB37" t="n">
         <v>0</v>
@@ -62036,7 +62036,7 @@
         <v>4342675</v>
       </c>
       <c r="TA38" t="n">
-        <v>0</v>
+        <v>1065739</v>
       </c>
       <c r="TB38" t="n">
         <v>0</v>
@@ -63632,7 +63632,7 @@
         <v>7431</v>
       </c>
       <c r="TA39" t="n">
-        <v>0</v>
+        <v>74465</v>
       </c>
       <c r="TB39" t="n">
         <v>0</v>
@@ -65228,7 +65228,7 @@
         <v>27278</v>
       </c>
       <c r="TA40" t="n">
-        <v>0</v>
+        <v>113650</v>
       </c>
       <c r="TB40" t="n">
         <v>0</v>
@@ -66824,7 +66824,7 @@
         <v>1601</v>
       </c>
       <c r="TA41" t="n">
-        <v>0</v>
+        <v>307</v>
       </c>
       <c r="TB41" t="n">
         <v>0</v>
@@ -70016,7 +70016,7 @@
         <v>1909</v>
       </c>
       <c r="TA43" t="n">
-        <v>0</v>
+        <v>5916</v>
       </c>
       <c r="TB43" t="n">
         <v>0</v>
@@ -74804,7 +74804,7 @@
         <v>61111</v>
       </c>
       <c r="TA46" t="n">
-        <v>0</v>
+        <v>3314</v>
       </c>
       <c r="TB46" t="n">
         <v>0</v>
@@ -76400,7 +76400,7 @@
         <v>0</v>
       </c>
       <c r="TA47" t="n">
-        <v>0</v>
+        <v>22134</v>
       </c>
       <c r="TB47" t="n">
         <v>0</v>
@@ -77996,7 +77996,7 @@
         <v>3237845</v>
       </c>
       <c r="TA48" t="n">
-        <v>0</v>
+        <v>16535933</v>
       </c>
       <c r="TB48" t="n">
         <v>0</v>
@@ -79592,7 +79592,7 @@
         <v>706</v>
       </c>
       <c r="TA49" t="n">
-        <v>0</v>
+        <v>51720</v>
       </c>
       <c r="TB49" t="n">
         <v>0</v>
@@ -81188,7 +81188,7 @@
         <v>124369</v>
       </c>
       <c r="TA50" t="n">
-        <v>0</v>
+        <v>245358</v>
       </c>
       <c r="TB50" t="n">
         <v>0</v>
@@ -82784,7 +82784,7 @@
         <v>24519</v>
       </c>
       <c r="TA51" t="n">
-        <v>0</v>
+        <v>146031</v>
       </c>
       <c r="TB51" t="n">
         <v>0</v>
@@ -84380,7 +84380,7 @@
         <v>1138297</v>
       </c>
       <c r="TA52" t="n">
-        <v>0</v>
+        <v>260539</v>
       </c>
       <c r="TB52" t="n">
         <v>0</v>
@@ -87572,7 +87572,7 @@
         <v>97541</v>
       </c>
       <c r="TA54" t="n">
-        <v>0</v>
+        <v>176217</v>
       </c>
       <c r="TB54" t="n">
         <v>0</v>
@@ -89168,7 +89168,7 @@
         <v>748</v>
       </c>
       <c r="TA55" t="n">
-        <v>0</v>
+        <v>8885</v>
       </c>
       <c r="TB55" t="n">
         <v>0</v>
